--- a/data/steel/steel_simplified_factory-noupstream.xlsx
+++ b/data/steel/steel_simplified_factory-noupstream.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
